--- a/data/trans_camb/P25A_6_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_6_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,95</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,66</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,21</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 2,82</t>
+          <t>-6,53; 5,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; -0,53</t>
+          <t>-9,62; 0,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 42,88</t>
+          <t>-7,04; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 55,42</t>
+          <t>-11,87; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,98</t>
+          <t>-11,26; 1,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,68</t>
+          <t>-7,17; 8,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,01; 46,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 1,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; -0,21</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 5,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,18%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,06%</t>
+          <t>-63,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>361,62%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>488,74%</t>
+          <t>-44,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>-38,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>477,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-34,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-46,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 99,67</t>
+          <t>-73,37; 223,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,73; -1,81</t>
+          <t>-90,51; 32,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,85; 1063,42</t>
+          <t>-83,2; 192,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 68,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 53,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>220,2; 1004,74</t>
+          <t>-77,17; 37,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 44,55</t>
+          <t>-69,78; 40,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,39; 14,74</t>
+          <t>-49,78; 153,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>263,62; 875,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-64,92; 26,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-71,63; -2,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-46,65; 103,56</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,68</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,53</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,11</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,4</t>
+          <t>-2,55; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,92</t>
+          <t>-2,61; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 60,24</t>
+          <t>-1,96; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 53,03</t>
+          <t>-2,3; 1,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,84</t>
+          <t>-1,46; 4,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,65</t>
+          <t>-1,09; 4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 48,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 0,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 1,99</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 2,56</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2981,95%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1955,34%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2695,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>44,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 225,0</t>
+          <t>-72,53; 153,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 323,93</t>
+          <t>-74,18; 126,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1001,54; 7111,11</t>
+          <t>-66,67; 324,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,55; 155,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 465,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6892,55</t>
+          <t>-75,59; 227,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 123,52</t>
+          <t>-67,69; 628,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 200,27</t>
+          <t>-51,86; 493,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1194,97; 5601,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-58,9; 82,94</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-51,7; 179,91</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-32,84; 215,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,21</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,76</t>
+          <t>-0,2; 3,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,31</t>
+          <t>-0,13; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 55,0</t>
+          <t>-0,77; 4,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 86,21</t>
+          <t>-1,81; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,68</t>
+          <t>-0,92; 1,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,75</t>
+          <t>-1,09; 0,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 57,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 1,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 2,14</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 2,3</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>189,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>203,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>988,26%</t>
+          <t>102,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>58,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13084,38%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3627,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>117,51%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1601,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 347,4</t>
+          <t>-60,8; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 591,7</t>
+          <t>-64,05; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1253,24 +1631,54 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 210,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 401,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>609,57; 14142,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-68,58; 816,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-35,76; 1096,43</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,24</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,86</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,24</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,19</t>
+          <t>-3,14; 0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,46; 41,9</t>
+          <t>-2,5; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,45; 54,09</t>
+          <t>0,26; 5,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,95</t>
+          <t>-0,5; 4,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,75; 43,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 2,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 2,5</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>-52,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1348,18%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1637,72%</t>
+          <t>176,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>108,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1534,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 82,46</t>
+          <t>-85,96; 44,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 65,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>676,13; 2517,32</t>
+          <t>-71,19; 154,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 63,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 84,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>939,67; 2858,62</t>
+          <t>-16,4; 628,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 44,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 54,4</t>
+          <t>-45,56; 538,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>986,81; 2223,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,69; 148,66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-43,34; 169,85</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 0,79</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 1,34</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 2,0</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 3,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 0,81</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 1,04</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 1,88</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-18,25%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,29%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>62,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-2,78%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-42,72; 69,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-51,65; 50,13</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-45,73; 75,23</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-40,72; 76,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,34; 121,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 183,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-32,72; 43,6</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-33,75; 54,55</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 91,35</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
